--- a/TestEnvironment/MasterData/MasterDataFile.xlsx
+++ b/TestEnvironment/MasterData/MasterDataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeraj\PycharmProjects\MIMO\TestEnvironment\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329BA48D-036C-4F5C-A18C-300398421AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA486CBB-05ED-4EF7-BFA4-317DAD71B047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalData" sheetId="2" r:id="rId1"/>
@@ -22,13 +22,15 @@
     <sheet name="test_Smoke_Administration_Admin" sheetId="8" r:id="rId7"/>
     <sheet name="test_Smoke_Home_Superintendent" sheetId="9" r:id="rId8"/>
     <sheet name="test_Smoke_Properties_Superinte" sheetId="10" r:id="rId9"/>
+    <sheet name="test_Smoke_Inspections_Superint" sheetId="11" r:id="rId10"/>
+    <sheet name="test_Smoke_WorkOrders_Superinte" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="256">
   <si>
     <t>AdminUsername</t>
   </si>
@@ -1182,7 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F363D98D-09C5-44C0-921A-BBB06DDB1366}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="BC11" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1377,6 +1379,362 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA81E54-4927-461F-BCC2-9BA3A9808897}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B878A8-414E-43D4-876F-1551A05A41D8}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TestEnvironment/MasterData/MasterDataFile.xlsx
+++ b/TestEnvironment/MasterData/MasterDataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeraj\PycharmProjects\MIMO\TestEnvironment\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA486CBB-05ED-4EF7-BFA4-317DAD71B047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F310FE7-C04D-4C57-8A8C-A5E1BEBDC57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalData" sheetId="2" r:id="rId1"/>
@@ -24,13 +24,15 @@
     <sheet name="test_Smoke_Properties_Superinte" sheetId="10" r:id="rId9"/>
     <sheet name="test_Smoke_Inspections_Superint" sheetId="11" r:id="rId10"/>
     <sheet name="test_Smoke_WorkOrders_Superinte" sheetId="12" r:id="rId11"/>
+    <sheet name="test_Smoke_Home_Vendor" sheetId="13" r:id="rId12"/>
+    <sheet name="test_Smoke_PreviousWork_Vendor" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="315">
   <si>
     <t>AdminUsername</t>
   </si>
@@ -798,6 +800,183 @@
   </si>
   <si>
     <t>MIMO - Smoke Test Suite for Superintendent</t>
+  </si>
+  <si>
+    <t>//div[text()='Inspections']</t>
+  </si>
+  <si>
+    <t>test_Smoke_WorkOrders_Superintendent</t>
+  </si>
+  <si>
+    <t>This test scenario is to perform a smoke test on all elements on Work Orders modules for Superintendent user</t>
+  </si>
+  <si>
+    <t>test_Smoke_Inspections_Superintendent</t>
+  </si>
+  <si>
+    <t>This test scenario is to perform a smoke test on all elements on Inspections modules for Superintendent user</t>
+  </si>
+  <si>
+    <t>//div[text()='Work Orders']</t>
+  </si>
+  <si>
+    <t>Smoke_Inspections_Superintendent</t>
+  </si>
+  <si>
+    <t>Smoke_WorkOrders_Superintendent</t>
+  </si>
+  <si>
+    <t>Smoke_Administration_Admin</t>
+  </si>
+  <si>
+    <t>Smoke_Regions_Admin</t>
+  </si>
+  <si>
+    <t>Smoke_WorkOrders_Admin</t>
+  </si>
+  <si>
+    <t>Smoke_Inspections_Admin</t>
+  </si>
+  <si>
+    <t>Smoke_Properties_Admin</t>
+  </si>
+  <si>
+    <t>EmailSubject_Smoke_Vendor</t>
+  </si>
+  <si>
+    <t>MIMO - Smoke Test Suite for Vendor</t>
+  </si>
+  <si>
+    <t>EmailIntro_Smoke_Vendor</t>
+  </si>
+  <si>
+    <t>Here is the test summary report on smoke test suite for Vendor user.</t>
+  </si>
+  <si>
+    <t>test_Smoke_Home_Vendor</t>
+  </si>
+  <si>
+    <t>Vendor/</t>
+  </si>
+  <si>
+    <t>Smoke_Home_Vendor</t>
+  </si>
+  <si>
+    <t>This test scenario is to perform a smoke test on all elements on Home modules for Vendor user</t>
+  </si>
+  <si>
+    <t>PreviousWorkPage</t>
+  </si>
+  <si>
+    <t>//a/div[contains(text(),'Previous Work')]</t>
+  </si>
+  <si>
+    <t>OpenWorkOrdersSection</t>
+  </si>
+  <si>
+    <t>//h3/span[contains(text(),'Work Orders')]</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'Pending Work Orders')]</t>
+  </si>
+  <si>
+    <t>PendingWorkOrdersButton</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'Pending Work Orders')]/parent::div/parent::div/parent::div/div[2]/div[2]/div/div[2]/div//table/thead/tr[1]/th[1]/div/span[1][contains(text(),'ID')]</t>
+  </si>
+  <si>
+    <t>PendingWorkOrdersButtonText</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'Pending Work Orders')]/parent::div/parent::div/parent::div/div[2]/div[2]/div/div[2]/div//table/tbody/tr[1]/td[1]</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'Pending Work Orders')]/parent::div/parent::div/parent::div/div[2]/div[2]/div/div[2]/div//table/tbody/tr[1]/td[1]/div/p/strong/a</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Work Order Details')]</t>
+  </si>
+  <si>
+    <t>WorkOrdersIDClick</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'In-Progress Work Orders')]</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'In-Progress Work Orders')]/parent::div/parent::div/parent::div/div[2]/div[2]/div/div[2]/div//table/thead/tr[1]/th[1]/div/span[1][contains(text(),'ID')]</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'In-Progress Work Orders')]/parent::div/parent::div/parent::div/div[2]/div[2]/div/div[2]/div//table/tbody/tr[1]/td[1]</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'In-Progress Work Orders')]/parent::div/parent::div/parent::div/div[2]/div[2]/div/div[2]/div//table/tbody/tr[1]/td[1]/div/p/strong/a</t>
+  </si>
+  <si>
+    <t>InProgressWorkOrdersButton</t>
+  </si>
+  <si>
+    <t>InProgressWorkOrdersButtonText</t>
+  </si>
+  <si>
+    <t>SafeToInProgressWorkOrdersButtonClick</t>
+  </si>
+  <si>
+    <t>WorkOrdersIDClick1Text</t>
+  </si>
+  <si>
+    <t>WorkOrdersIDClick2Text</t>
+  </si>
+  <si>
+    <t>This test scenario is to perform a smoke test on all elements on Previous Work module for Vendor user</t>
+  </si>
+  <si>
+    <t>test_Smoke_PreviousWork_Vendor</t>
+  </si>
+  <si>
+    <t>Smoke_PreviousWork_Vendor</t>
+  </si>
+  <si>
+    <t>SummaryTabClick</t>
+  </si>
+  <si>
+    <t>SummaryTabClickText</t>
+  </si>
+  <si>
+    <t>//div[text()='Summary']</t>
+  </si>
+  <si>
+    <t>VendorSummaryTabClick</t>
+  </si>
+  <si>
+    <t>VendorSummaryTabClickText</t>
+  </si>
+  <si>
+    <t>//div[text()='Vendor Summary']</t>
+  </si>
+  <si>
+    <t>CommentHistoryTabClick</t>
+  </si>
+  <si>
+    <t>CommentHistoryTabClickText</t>
+  </si>
+  <si>
+    <t>//div[text()='Comment History']</t>
+  </si>
+  <si>
+    <t>RelatedActionTabClick</t>
+  </si>
+  <si>
+    <t>RelatedActionTabClickText</t>
+  </si>
+  <si>
+    <t>//strong[text()='Create Comment']</t>
+  </si>
+  <si>
+    <t>//button[text()='Create Comment']/span</t>
+  </si>
+  <si>
+    <t>//div[text()='Related Actions']</t>
   </si>
 </sst>
 </file>
@@ -1182,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F363D98D-09C5-44C0-921A-BBB06DDB1366}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="BC11" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1324,49 +1503,65 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>252</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>253</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>252</v>
+      </c>
+      <c r="B19" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" t="s">
-        <v>162</v>
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>161</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1386,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA81E54-4927-461F-BCC2-9BA3A9808897}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1411,7 +1606,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1427,7 +1622,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1451,7 +1646,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1459,7 +1654,7 @@
         <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -1483,7 +1678,7 @@
         <v>132</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -1559,20 +1754,12 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>232</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1582,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B878A8-414E-43D4-876F-1551A05A41D8}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1609,7 +1796,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1625,7 +1812,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1649,7 +1836,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>149</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1657,78 +1844,70 @@
         <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>151</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="5" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="4" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1738,12 +1917,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C5BEDC-3C6F-4A92-A8A9-5B28D27ECA6F}">
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1767,6 +1946,424 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>295</v>
+      </c>
+      <c r="B19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5E1477-90FD-45FB-B782-9342640438CD}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>307</v>
+      </c>
+      <c r="B22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>308</v>
+      </c>
+      <c r="B23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>310</v>
+      </c>
+      <c r="B24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>311</v>
+      </c>
+      <c r="B25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D28" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2067,418 +2664,6 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFAC4B2-ADFF-46E2-A44E-07BC9CD9E37E}">
   <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DE2BAB-D263-4D6E-88B6-8CB91950015D}">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C00309-3F1B-487C-ADE3-343FC180535A}">
-  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -2505,7 +2690,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2545,7 +2730,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2553,7 +2738,7 @@
         <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2561,7 +2746,7 @@
         <v>123</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2569,7 +2754,7 @@
         <v>125</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2577,7 +2762,7 @@
         <v>132</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2585,47 +2770,103 @@
         <v>133</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>147</v>
+      <c r="B21" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2634,12 +2875,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366C15E2-00D6-41F2-8033-434E6E320DFC}">
-  <dimension ref="A1:B17"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DE2BAB-D263-4D6E-88B6-8CB91950015D}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2663,7 +2904,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2703,7 +2944,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2711,7 +2952,7 @@
         <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2727,7 +2968,7 @@
         <v>125</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2735,7 +2976,7 @@
         <v>132</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2743,47 +2984,87 @@
         <v>133</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>174</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2792,12 +3073,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE541C00-ECAB-4FD0-90E5-F2A970EB7845}">
-  <dimension ref="A1:B24"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C00309-3F1B-487C-ADE3-343FC180535A}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2821,7 +3102,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2861,7 +3142,323 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366C15E2-00D6-41F2-8033-434E6E320DFC}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE541C00-ECAB-4FD0-90E5-F2A970EB7845}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -3010,8 +3607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E4E8EE-9B32-44B5-8160-5A5989519F2E}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3291,7 +3888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4D6A74-C42C-46DF-BCD8-06DC01B3C1F8}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/TestEnvironment/MasterData/MasterDataFile.xlsx
+++ b/TestEnvironment/MasterData/MasterDataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeraj\PycharmProjects\MIMO\TestEnvironment\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F310FE7-C04D-4C57-8A8C-A5E1BEBDC57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EE9A59-CED2-4B7F-8C6F-562B78D0C1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalData" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="322">
   <si>
     <t>AdminUsername</t>
   </si>
@@ -977,6 +977,27 @@
   </si>
   <si>
     <t>//div[text()='Related Actions']</t>
+  </si>
+  <si>
+    <t>WorkOrdersID_Ele</t>
+  </si>
+  <si>
+    <t>//table/tbody/tr[1]/td[1]/div/p/strong/a/span</t>
+  </si>
+  <si>
+    <t>WorkOrdersID_PendWO_Ele</t>
+  </si>
+  <si>
+    <t>WorkOrdersID_InProgWO_Ele</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'In-Progress Work Orders')]/parent::div/parent::div/parent::div/div[2]/div[2]/div/div[2]/div/table/tbody/tr[1]/td[1]/div/p/strong/a/span</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'Pending Work Orders')]/parent::div/parent::div/parent::div/div[2]/div[2]/div/div[2]/div/table/tbody/tr[1]/td[1]/div/p/strong/a/span</t>
+  </si>
+  <si>
+    <t>SafeToPendingWorkOrdersClick</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1385,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1919,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C5BEDC-3C6F-4A92-A8A9-5B28D27ECA6F}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2039,7 +2060,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>321</v>
       </c>
       <c r="B14" t="s">
         <v>285</v>
@@ -2047,62 +2068,78 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>296</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>293</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>294</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>295</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>318</v>
+      </c>
+      <c r="B21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>288</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>297</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D32" s="6"/>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2112,10 +2149,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5E1477-90FD-45FB-B782-9342640438CD}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2224,39 +2261,39 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="B13" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B14" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
         <v>287</v>
@@ -2264,70 +2301,38 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B20" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B21" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>307</v>
-      </c>
-      <c r="B22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>308</v>
-      </c>
-      <c r="B23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>310</v>
-      </c>
-      <c r="B24" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>311</v>
-      </c>
-      <c r="B25" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D28" s="6"/>
+      <c r="D24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
